--- a/data/income_statement/3digits/total/274_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/274_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>274-Manufacture of electric lighting equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>274-Manufacture of electric lighting equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1182335.53331</v>
@@ -965,28 +871,33 @@
         <v>2745785.64997</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3347708.762649999</v>
+        <v>3347815.21469</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3625114.437129999</v>
+        <v>3643204.67028</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4212885.15119</v>
+        <v>4238383.90963</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>5397541.05306</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>7386442.472399999</v>
+        <v>7393397.998799999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>7561879.33676</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>7712761.24853</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>11840229.153</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>979031.3178199999</v>
@@ -1004,28 +915,33 @@
         <v>2257189.72112</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2697225.309309999</v>
+        <v>2697327.14135</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2907793.75453</v>
+        <v>2925869.03177</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3406662.21412</v>
+        <v>3425439.22805</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>4404906.938390001</v>
+        <v>4404906.93839</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>5962622.43475</v>
+        <v>5967859.818179999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5980882.8611</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6086799.910569999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>9634148.759</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>194001.49877</v>
@@ -1037,37 +953,42 @@
         <v>281841.68817</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>329311.46366</v>
+        <v>329311.4636600001</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>466853.53864</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>625856.81773</v>
+        <v>625861.43773</v>
       </c>
       <c r="I7" s="48" t="n">
         <v>689675.82242</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>769102.6457400002</v>
+        <v>775607.67551</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>947164.61816</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1359078.99647</v>
+        <v>1360765.10857</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1519997.408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1564325.39086</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2115818.338</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>9302.716719999999</v>
+        <v>9302.71672</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>11072.32432</v>
@@ -1085,25 +1006,30 @@
         <v>24626.63561</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>27644.86018</v>
+        <v>27659.81609</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>37120.29133</v>
+        <v>37337.00607</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>45469.49651</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>64741.04118000001</v>
+        <v>64773.07205</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>60999.06765999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>61635.9471</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>90262.056</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>38543.06483</v>
@@ -1112,7 +1038,7 @@
         <v>57472.31466</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>73421.45274000001</v>
+        <v>73421.45273999999</v>
       </c>
       <c r="F9" s="47" t="n">
         <v>91891.59376</v>
@@ -1121,28 +1047,33 @@
         <v>110650.18068</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>142051.89901</v>
+        <v>142052.55001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>150655.33389</v>
+        <v>150677.259</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>196363.66088</v>
+        <v>197207.37267</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>242187.54153</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>346917.98936</v>
+        <v>346919.69787</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>315057.49219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>323207.3803</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>462066.79</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>17070.84873</v>
@@ -1160,28 +1091,33 @@
         <v>29660.39885</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>40275.74062999999</v>
+        <v>40276.39163000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>47143.24252</v>
+        <v>47164.74390000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>68463.19959999999</v>
+        <v>69306.91138999999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>68922.89757</v>
+        <v>68922.89756999999</v>
       </c>
       <c r="L10" s="48" t="n">
         <v>104686.3292</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>129803.31213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>130477.95539</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>133027.304</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>18629.30625</v>
@@ -1190,7 +1126,7 @@
         <v>36560.53707</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>47431.32892</v>
+        <v>47431.32891999999</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>54555.30461</v>
@@ -1199,10 +1135,10 @@
         <v>77807.31303</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>92698.77739999999</v>
+        <v>92698.77740000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>96726.26153</v>
+        <v>96726.68526</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>115544.81115</v>
@@ -1211,16 +1147,21 @@
         <v>150580.2233</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>179219.42465</v>
+        <v>179219.44316</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>153783.51132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>161012.27597</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>281427.921</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>2842.90985</v>
@@ -1238,10 +1179,10 @@
         <v>3182.4688</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>9077.380979999998</v>
+        <v>9077.38098</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>6785.829839999999</v>
+        <v>6785.82984</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>12355.65013</v>
@@ -1250,16 +1191,21 @@
         <v>22684.42066</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>63012.23551</v>
+        <v>63013.92551</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>31470.66874</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>31717.14894</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>47611.565</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1143792.46848</v>
@@ -1277,28 +1223,33 @@
         <v>2635135.46929</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3205656.86364</v>
+        <v>3205762.66468</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3474459.10324</v>
+        <v>3492527.41128</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4016521.49031</v>
+        <v>4041176.53696</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>5155353.511530001</v>
+        <v>5155353.51153</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>7039524.48304</v>
+        <v>7046478.30093</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>7246821.84457</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>7389553.868230001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>11378162.363</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>913107.1634900001</v>
@@ -1316,34 +1267,39 @@
         <v>2078703.81064</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2554789.7764</v>
+        <v>2554860.28772</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2689348.45297</v>
+        <v>2704961.43036</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3135484.69703</v>
+        <v>3150355.23562</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>3966724.36763</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5433686.21752</v>
+        <v>5439573.39915</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5638797.32358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5761121.687399999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>9346478.339</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>743960.0766099999</v>
+        <v>743960.07661</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>898366.4038199999</v>
+        <v>898366.40382</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>1236497.74622</v>
@@ -1355,28 +1311,33 @@
         <v>1600013.49759</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1850084.54021</v>
+        <v>1850155.05153</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2026787.27627</v>
+        <v>2033912.13144</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2354157.08426</v>
+        <v>2369009.93395</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>2994386.459189999</v>
+        <v>2994386.45919</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>3997759.25501</v>
+        <v>4000998.69949</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>4110581.76761</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4198511.74277</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>5291816.965</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>137345.87934</v>
@@ -1394,28 +1355,33 @@
         <v>379747.09155</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>569484.10442</v>
+        <v>569484.1044200001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>495158.35765</v>
+        <v>503330.3854500001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>571300.73143</v>
+        <v>571318.42033</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>703870.7465199999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1105064.2836</v>
+        <v>1107377.8412</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1154339.39029</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1184952.13337</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3699542.411</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>28081.0231</v>
@@ -1436,7 +1402,7 @@
         <v>106506.13131</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>143366.30005</v>
+        <v>143666.7165</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>174832.07209</v>
@@ -1445,16 +1411,21 @@
         <v>219558.61437</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>223184.30083</v>
+        <v>223500.26004</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>270019.93686</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>273612.12112</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>239698.171</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>3720.18444</v>
@@ -1475,7 +1446,7 @@
         <v>28715.00046</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>24036.519</v>
+        <v>24052.19697</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>35194.80925</v>
@@ -1484,16 +1455,21 @@
         <v>48908.54755</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>107678.37808</v>
+        <v>107696.59842</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>103856.22882</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>104045.69014</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>115420.792</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>230685.30499</v>
@@ -1511,28 +1487,33 @@
         <v>556431.65865</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>650867.08724</v>
+        <v>650902.37696</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>785110.65027</v>
+        <v>787565.9809200001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>881036.79328</v>
+        <v>890821.30134</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1188629.1439</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1605838.26552</v>
+        <v>1606904.90178</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1608024.52099</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1628432.18083</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2031684.024</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>163786.27984</v>
@@ -1550,28 +1531,33 @@
         <v>366256.5668</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>432883.60259</v>
+        <v>432980.6938</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>492737.91711</v>
+        <v>494719.2741800001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>558853.4842300001</v>
+        <v>561976.9096899999</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>644587.0409200001</v>
+        <v>644587.0409199999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>799146.00179</v>
+        <v>801881.4348900001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>898841.1701399999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>910998.51874</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1055851.278</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>10715.98413</v>
@@ -1595,7 +1581,7 @@
         <v>22731.49129</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>33786.05697999999</v>
+        <v>33830.33398</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>33532.42363</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>52879.95381</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>75184.787</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>51788.91613</v>
@@ -1619,7 +1610,7 @@
         <v>57249.70877</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>84021.01199</v>
+        <v>84021.01199000001</v>
       </c>
       <c r="F22" s="48" t="n">
         <v>97084.95719</v>
@@ -1628,28 +1619,33 @@
         <v>122676.472</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>156083.14998</v>
+        <v>156132.62514</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>178053.3245</v>
+        <v>178180.32599</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>190169.69457</v>
+        <v>190877.7511</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>218782.01847</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>274557.01364</v>
+        <v>274641.27154</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>299035.24395</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>301758.58308</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>357912.875</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>101281.37958</v>
@@ -1667,28 +1663,33 @@
         <v>228205.67109</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>258101.13766</v>
+        <v>258148.75371</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>291953.10132</v>
+        <v>293807.4569</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>334897.73268</v>
+        <v>337268.82461</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>392272.59882</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>483486.85038</v>
+        <v>486138.0255799999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>546925.9723800001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>556359.9818499999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>622753.616</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>66899.02515</v>
@@ -1706,28 +1707,33 @@
         <v>190175.09185</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>217983.48465</v>
+        <v>217921.68316</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>292372.7331599999</v>
+        <v>292846.70674</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>322183.30905</v>
+        <v>328844.39165</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>544042.10298</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>806692.2637299999</v>
+        <v>805023.46689</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>709183.3508500002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>717433.6620899999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>975832.746</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>20900.4359</v>
@@ -1748,31 +1754,36 @@
         <v>53382.12859</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>124941.19982</v>
+        <v>124946.69484</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>116426.89666</v>
+        <v>116995.68727</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>193018.95668</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>554272.4123</v>
+        <v>555731.18658</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>324306.54458</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>326179.35098</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>991199.847</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>380.32844</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>517.3854299999999</v>
+        <v>517.38543</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>77.76373000000001</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>233.60008</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>237.64087</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>6.472</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>2357.17429</v>
@@ -1865,10 +1886,10 @@
         <v>6491.59162</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>9840.729230000001</v>
+        <v>9846.22423</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>12595.92733</v>
+        <v>12681.6295</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>16538.8618</v>
@@ -1877,13 +1898,18 @@
         <v>35465.58264</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>51553.32071</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>51637.00392</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>38695.1</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>133.24442</v>
@@ -1895,19 +1921,19 @@
         <v>197.6768</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>91.24835</v>
+        <v>91.24834999999999</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>119.74522</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>642.74297</v>
+        <v>642.7429700000001</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>704.60267</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>415.56876</v>
+        <v>415.5687599999999</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>191.63976</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>24.27807</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>238.098</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>477.16798</v>
@@ -1952,16 +1983,21 @@
         <v>2401.69939</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>6133.06586</v>
+        <v>6133.065860000001</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>4208.341570000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>3171.909</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>682.36921</v>
@@ -1994,13 +2030,18 @@
         <v>815.2641</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3733.93033</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>3733.83033</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>3371.018</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>13199.59927</v>
@@ -2024,22 +2065,27 @@
         <v>98581.6697</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>86379.71373999999</v>
+        <v>86651.49708</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>150940.9318</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>473870.1214600001</v>
+        <v>473901.0278</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>195651.94554</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>196480.40468</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>880472.284</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>7.14737</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>10687.20168</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>997.7809999999999</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>18.19292</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>94.79116</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>3645.212</v>
@@ -2129,7 +2185,7 @@
         <v>4856.03564</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>5563.06225</v>
+        <v>5563.062249999999</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>7179.67775</v>
@@ -2138,25 +2194,30 @@
         <v>9486.027330000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>12049.55047</v>
+        <v>12049.55049</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>13067.36294</v>
+        <v>13278.66804</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>17409.44477</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>32686.34253</v>
+        <v>34114.21047</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>57881.49457</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>58842.25862</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>64247.185</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>17936.96162</v>
@@ -2180,28 +2241,33 @@
         <v>106290.16179</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>92344.25697</v>
+        <v>92474.29286</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>127539.73236</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>441762.47027</v>
+        <v>441771.52356</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>187070.85267</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>188584.82622</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>668658.737</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1047.97347</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>851.28137</v>
+        <v>851.2813700000002</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>1895.29958</v>
@@ -2225,16 +2291,21 @@
         <v>1853.32277</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>3390.607230000001</v>
+        <v>3390.60723</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3621.3509</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3638.50502</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>3728.984</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>2264.80335</v>
@@ -2246,7 +2317,7 @@
         <v>4339.171</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>6863.63584</v>
+        <v>6863.635839999999</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>2833.43715</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>26470.10806</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>11819.295</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>185.49206</v>
@@ -2288,7 +2364,7 @@
         <v>162.10858</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>67.00054999999999</v>
+        <v>67.00055</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>127.44015</v>
@@ -2297,7 +2373,7 @@
         <v>159.04916</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>37.52014</v>
+        <v>37.86144</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>113.57761</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>611.41299</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>100.919</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>13276.05068</v>
@@ -2327,7 +2408,7 @@
         <v>12916.5545</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>41092.69938000001</v>
+        <v>41092.69938</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>32858.88787</v>
@@ -2336,22 +2417,27 @@
         <v>93635.80156000001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>74479.37579999999</v>
+        <v>74609.07038999999</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>111221.9359</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>389327.09247</v>
+        <v>389336.06476</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>139898.15528</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>140991.84177</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>647722.361</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>7.14737</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>12131.2273</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1066.493</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.95321</v>
@@ -2425,17 +2516,22 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>1154.54148</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>853.98162</v>
+        <v>853.9816200000001</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>1308.50656</v>
@@ -2453,22 +2549,27 @@
         <v>3565.78358</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5028.336270000001</v>
+        <v>5028.33627</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>2879.98081</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>10898.21343</v>
+        <v>10898.29443</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>4338.598140000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>4741.73108</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>4220.685</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>25126.26481</v>
@@ -2483,31 +2584,36 @@
         <v>43022.40475</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>70410.35928999999</v>
+        <v>70410.35929000001</v>
       </c>
       <c r="H44" s="47" t="n">
         <v>61836.92199</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>97860.92064</v>
+        <v>97967.36221000001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>129247.67962</v>
+        <v>129542.141</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>159882.98794</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>276742.15891</v>
+        <v>276754.60101</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>214009.28204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>216619.31831</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>417400.995</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>23879.78056</v>
@@ -2528,31 +2634,36 @@
         <v>58689.54897</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>82784.61250999999</v>
+        <v>82873.17939</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>117891.87234</v>
+        <v>118186.33372</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>139846.12333</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>250339.86911</v>
+        <v>250352.31121</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>195185.77338</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>197795.80965</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>394967.751</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>1246.48425</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>887.8684599999999</v>
+        <v>887.86846</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>1454.43793</v>
@@ -2567,7 +2678,7 @@
         <v>3147.37302</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>15076.30813</v>
+        <v>15094.18282</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>11355.80728</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>18823.50866</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>22433.244</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>44736.23462</v>
@@ -2603,28 +2719,33 @@
         <v>131290.24785</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>164203.4719499999</v>
+        <v>164141.67046</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>213162.85055</v>
+        <v>213535.87758</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>217018.26912</v>
+        <v>223823.64506</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>449638.33936</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>642460.04685</v>
+        <v>642228.5289000002</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>632409.76072</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>638408.8685399999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>880972.861</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>8205.96925</v>
@@ -2642,28 +2763,33 @@
         <v>16096.36098</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>22308.62291000001</v>
+        <v>22308.62291</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>25531.31931</v>
+        <v>25546.99728</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>42649.67745</v>
+        <v>42679.44994999999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>40893.24483</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>39121.90048999999</v>
+        <v>39144.87373000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>40811.25319999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>40997.19655</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>53204.282</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>45.035</v>
@@ -2672,7 +2798,7 @@
         <v>97.8052</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>67.76376</v>
+        <v>67.76375999999999</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>102.9148</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>2027.25138</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>258.494</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>8160.93425</v>
@@ -2723,31 +2854,36 @@
         <v>22052.24655</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>25458.77859</v>
+        <v>25474.45656</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>42271.96580000001</v>
+        <v>42301.7383</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>40477.80692</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>37068.63245</v>
+        <v>37091.60569</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>38784.00182</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>38969.94517</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>52945.788</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>7210.73305</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>8348.017950000001</v>
+        <v>8348.017949999999</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>47285.65712</v>
@@ -2762,25 +2898,30 @@
         <v>40022.66559</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>16553.31443</v>
+        <v>16565.02008</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>68819.19098</v>
+        <v>68848.0735</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>23776.59973</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>54909.26949</v>
+        <v>55076.38279</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>45476.57384</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>48146.55258</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>30942.281</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>286.35019</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>1087.40712</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>1571.075</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>2105.77843</v>
@@ -2849,22 +2995,27 @@
         <v>1203.76275</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1380.79671</v>
+        <v>1382.55118</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1587.24724</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1962.88407</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>971.756</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>4818.604429999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>7014.920970000001</v>
+        <v>7014.92097</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>46555.36386</v>
@@ -2876,34 +3027,39 @@
         <v>14839.94612</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>37065.81499</v>
+        <v>37065.81498999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>14159.33382</v>
+        <v>14171.03947</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>65805.58946999999</v>
+        <v>65834.47199000001</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>20884.09599</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>49634.53736000001</v>
+        <v>49799.89619</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>42801.91948</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>45096.26139</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>28399.45</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>45731.47082</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>58658.05668</v>
+        <v>58658.05668000001</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>51389.39124</v>
@@ -2915,28 +3071,33 @@
         <v>131169.85463</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>146489.42927</v>
+        <v>146427.62778</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>222140.85543</v>
+        <v>222517.85478</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>190848.75559</v>
+        <v>197655.02151</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>466754.9844600001</v>
+        <v>466754.9844599999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>626672.67785</v>
+        <v>626297.0198400001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>627744.44008</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>631259.51251</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>903234.862</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>10315.17097</v>
@@ -2957,25 +3118,30 @@
         <v>33428.88205</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>43368.45315</v>
+        <v>43430.33135</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>44473.91469</v>
+        <v>45106.67937</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>49540.56915</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>97054.18551000001</v>
+        <v>97350.73875000002</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>75135.45619</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>77259.60096</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>152232.806</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>35416.29985</v>
@@ -2993,25 +3159,28 @@
         <v>101735.71826</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>113060.54722</v>
+        <v>112998.74573</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>178772.40228</v>
+        <v>179087.52343</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>146374.8409</v>
+        <v>152548.34214</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>417214.41531</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>529618.49234</v>
+        <v>528946.2810900001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>552608.98389</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>553999.91155</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>751002.056</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>645</v>
@@ -3047,25 +3219,28 @@
         <v>950</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1139</v>
+        <v>1148</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1223</v>
+        <v>1230</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1318</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1322</v>
+        <v>1433</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1560</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>